--- a/results/mp/logistic/corona/confidence/84/0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,45 +40,42 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>sc</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -91,169 +88,169 @@
     <t>stop</t>
   </si>
   <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
     <t>to</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>and</t>
   </si>
 </sst>
 </file>
@@ -619,7 +616,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
         <v>39</v>
@@ -680,13 +677,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7241379310344828</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -698,19 +695,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K3">
-        <v>0.925</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L3">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="M3">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -722,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -730,13 +727,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7226027397260274</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C4">
-        <v>211</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>211</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -748,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K4">
         <v>0.8947368421052632</v>
@@ -780,49 +777,49 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6842105263157895</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>0.8916666666666667</v>
+      </c>
+      <c r="L5">
+        <v>107</v>
+      </c>
+      <c r="M5">
+        <v>107</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>13</v>
-      </c>
-      <c r="D5">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5">
-        <v>0.8913043478260869</v>
-      </c>
-      <c r="L5">
-        <v>41</v>
-      </c>
-      <c r="M5">
-        <v>41</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -830,13 +827,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6153846153846154</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -848,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <v>0.8813559322033898</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -872,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -880,7 +877,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5135135135135135</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C7">
         <v>19</v>
@@ -898,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K7">
         <v>0.8666666666666667</v>
@@ -951,16 +948,16 @@
         <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K8">
-        <v>0.8611111111111112</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -972,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -983,10 +980,10 @@
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -998,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K9">
-        <v>0.8571428571428571</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L9">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1022,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1030,13 +1027,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4705882352941176</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1048,19 +1045,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K10">
-        <v>0.8302872062663186</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L10">
-        <v>318</v>
+        <v>87</v>
       </c>
       <c r="M10">
-        <v>318</v>
+        <v>87</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1072,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>65</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1080,13 +1077,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4666666666666667</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1098,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K11">
-        <v>0.8113207547169812</v>
+        <v>0.8125</v>
       </c>
       <c r="L11">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1122,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1130,13 +1127,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4021164021164021</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="C12">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1148,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K12">
-        <v>0.8103448275862069</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1172,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1201,16 +1198,16 @@
         <v>33</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K13">
-        <v>0.8076923076923077</v>
+        <v>0.793733681462141</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>304</v>
       </c>
       <c r="M13">
-        <v>21</v>
+        <v>304</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1222,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1230,13 +1227,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.312015503875969</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="C14">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D14">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1248,19 +1245,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K14">
-        <v>0.7926829268292683</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L14">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1272,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1280,7 +1277,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.288135593220339</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C15">
         <v>17</v>
@@ -1298,19 +1295,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1322,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1330,13 +1327,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2133333333333333</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1348,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>0.7727272727272727</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L16">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1372,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1380,13 +1377,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1677852348993289</v>
+        <v>0.1027777777777778</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1398,19 +1395,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>124</v>
+        <v>323</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1422,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1430,13 +1427,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1027777777777778</v>
+        <v>0.05158730158730158</v>
       </c>
       <c r="C18">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1448,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>323</v>
+        <v>239</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>0.76875</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L18">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="M18">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1472,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1480,37 +1477,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.05158730158730158</v>
+        <v>0.006736842105263158</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>239</v>
+        <v>2359</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K19">
-        <v>0.7323943661971831</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L19">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1522,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1530,37 +1527,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.004837149306675266</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="C20">
         <v>15</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E20">
-        <v>0.29</v>
+        <v>0.12</v>
       </c>
       <c r="F20">
-        <v>0.71</v>
+        <v>0.88</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>3086</v>
+        <v>3090</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K20">
-        <v>0.7301587301587301</v>
+        <v>0.76875</v>
       </c>
       <c r="L20">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="M20">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1572,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1580,13 +1577,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.003709714815673545</v>
+        <v>0.003942486085343228</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E21">
         <v>0.48</v>
@@ -1598,145 +1595,97 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>4297</v>
+        <v>4295</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21">
+        <v>0.7578125</v>
+      </c>
+      <c r="L21">
+        <v>97</v>
+      </c>
+      <c r="M21">
+        <v>97</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22">
+        <v>0.7394366197183099</v>
+      </c>
+      <c r="L22">
+        <v>105</v>
+      </c>
+      <c r="M22">
+        <v>105</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K21">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L21">
-        <v>16</v>
-      </c>
-      <c r="M21">
-        <v>16</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.003687172520861634</v>
-      </c>
-      <c r="C22">
-        <v>19</v>
-      </c>
-      <c r="D22">
-        <v>31</v>
-      </c>
-      <c r="E22">
-        <v>0.39</v>
-      </c>
-      <c r="F22">
-        <v>0.61</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>5134</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L22">
-        <v>24</v>
-      </c>
-      <c r="M22">
-        <v>24</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.002608870158539033</v>
-      </c>
-      <c r="C23">
+      <c r="K23">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="L23">
+        <v>35</v>
+      </c>
+      <c r="M23">
+        <v>35</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>13</v>
-      </c>
-      <c r="D23">
-        <v>26</v>
-      </c>
-      <c r="E23">
-        <v>0.5</v>
-      </c>
-      <c r="F23">
-        <v>0.5</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>4970</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23">
-        <v>0.71875</v>
-      </c>
-      <c r="L23">
-        <v>92</v>
-      </c>
-      <c r="M23">
-        <v>92</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>0.7142857142857143</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1748,21 +1697,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K25">
-        <v>0.6944444444444444</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1774,21 +1723,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K26">
-        <v>0.6875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L26">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M26">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1800,21 +1749,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K27">
-        <v>0.6842105263157895</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L27">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M27">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1826,21 +1775,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K28">
-        <v>0.6595744680851063</v>
+        <v>0.64</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1852,21 +1801,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K29">
-        <v>0.64</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1878,12 +1827,12 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K30">
         <v>0.6296296296296297</v>
@@ -1909,16 +1858,16 @@
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K31">
-        <v>0.6285714285714286</v>
+        <v>0.6235294117647059</v>
       </c>
       <c r="L31">
-        <v>22</v>
+        <v>212</v>
       </c>
       <c r="M31">
-        <v>22</v>
+        <v>212</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1930,21 +1879,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K32">
-        <v>0.6279069767441861</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1956,21 +1905,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K33">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1982,21 +1931,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K34">
-        <v>0.5941176470588235</v>
+        <v>0.6</v>
       </c>
       <c r="L34">
-        <v>202</v>
+        <v>24</v>
       </c>
       <c r="M34">
-        <v>202</v>
+        <v>24</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2008,21 +1957,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>138</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K35">
-        <v>0.5774058577405857</v>
+        <v>0.5815899581589958</v>
       </c>
       <c r="L35">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M35">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2034,12 +1983,12 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K36">
         <v>0.5757575757575758</v>
@@ -2065,16 +2014,16 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K37">
-        <v>0.5714285714285714</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2086,21 +2035,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K38">
-        <v>0.5652173913043478</v>
+        <v>0.5389830508474577</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2112,21 +2061,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>10</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K39">
-        <v>0.5638297872340425</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L39">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2138,21 +2087,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K40">
-        <v>0.5627118644067797</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L40">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="M40">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2164,21 +2113,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>129</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K41">
-        <v>0.5416666666666666</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2190,21 +2139,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K42">
-        <v>0.5384615384615384</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L42">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2216,21 +2165,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K43">
-        <v>0.4571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L43">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M43">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2242,21 +2191,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K44">
-        <v>0.449438202247191</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L44">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M44">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2268,21 +2217,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K45">
-        <v>0.392156862745098</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="L45">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M45">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2294,12 +2243,12 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K46">
         <v>0.3809523809523809</v>
@@ -2325,16 +2274,16 @@
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K47">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L47">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M47">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2346,21 +2295,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K48">
-        <v>0.3013698630136986</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="L48">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2372,21 +2321,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K49">
-        <v>0.2888888888888889</v>
+        <v>0.2328767123287671</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2398,137 +2347,137 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K50">
-        <v>0.01669449081803005</v>
+        <v>0.01168614357262104</v>
       </c>
       <c r="L50">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N50">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="O50">
-        <v>0.08999999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>1178</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K51">
-        <v>0.009439899307740718</v>
+        <v>0.004874390701162355</v>
       </c>
       <c r="L51">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M51">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N51">
-        <v>0.75</v>
+        <v>0.68</v>
       </c>
       <c r="O51">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>1574</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="K52">
-        <v>0.006751687921980495</v>
+        <v>0.003711435861749014</v>
       </c>
       <c r="L52">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M52">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N52">
-        <v>0.72</v>
+        <v>0.48</v>
       </c>
       <c r="O52">
-        <v>0.28</v>
+        <v>0.52</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>2648</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="K53">
-        <v>0.003478664192949907</v>
+        <v>0.003299049097613041</v>
       </c>
       <c r="L53">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M53">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N53">
-        <v>0.48</v>
+        <v>0.59</v>
       </c>
       <c r="O53">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>4297</v>
+        <v>5136</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="K54">
-        <v>0.002608870158539033</v>
+        <v>0.002607300441235459</v>
       </c>
       <c r="L54">
         <v>13</v>
       </c>
       <c r="M54">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N54">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="O54">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>4970</v>
+        <v>4973</v>
       </c>
     </row>
   </sheetData>
